--- a/testdata/testresult/ResultSheet.xlsx
+++ b/testdata/testresult/ResultSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB59F0-B7AE-4DB0-983B-55B9D2CFBCF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35234BC-8222-4B0C-B065-B04AC194696C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,21 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Num1</t>
+    <t>Nadpis</t>
   </si>
   <si>
-    <t>Num2</t>
+    <t>Row 1</t>
   </si>
   <si>
-    <t>Num3</t>
+    <t>Row 2</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Nadpis</t>
+    <t>Row 3</t>
   </si>
 </sst>
 </file>
@@ -57,15 +54,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,12 +100,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,14 +386,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="true" ht="43.5">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Report Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Row 1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <f>$B$3</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Row 2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="3">
+        <f>$B$4</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Row 3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="3">
+        <f>$B$4</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="4">
+        <f>SUM(C3:C5)</f>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>

--- a/testdata/testresult/ResultSheet.xlsx
+++ b/testdata/testresult/ResultSheet.xlsx
@@ -401,7 +401,7 @@
     <row r="1" customHeight="true" ht="43.5">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Report Title</t>
+          <t>Report Name</t>
         </is>
       </c>
     </row>
